--- a/data/trans_orig/dukeCONF-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>28.20174359455827</v>
+        <v>28.20717038520058</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>29.43316138261103</v>
+        <v>29.39561405075682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28.32832736373032</v>
+        <v>28.34213649449953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26.63558839562338</v>
+        <v>26.59016403913713</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>28.12440621286232</v>
+        <v>28.09911708339807</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>28.80148611842891</v>
+        <v>28.76385729571605</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.4063068274723</v>
+        <v>28.39464125904322</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>26.89477006187173</v>
+        <v>26.87615960823077</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>28.27303245687651</v>
+        <v>28.28049937723318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29.15718638894635</v>
+        <v>29.20117419200209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28.4628145782098</v>
+        <v>28.45652951821241</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>26.91952182273223</v>
+        <v>26.87779754581634</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.19363390924653</v>
+        <v>29.20668920462562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.18525230346743</v>
+        <v>30.09965886929272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.97224977441734</v>
+        <v>28.9641841262766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.01397265197476</v>
+        <v>28.00125129594036</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.97236843329451</v>
+        <v>28.94427814966381</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.49235059176288</v>
+        <v>29.47863846517439</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>29.00779002384456</v>
+        <v>29.0015586740052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>27.93755087674891</v>
+        <v>27.91991954539678</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>28.94527683573062</v>
+        <v>28.89908341336182</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29.68141326053832</v>
+        <v>29.69357377428857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28.89731600763112</v>
+        <v>28.88756914565353</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>27.76192542726968</v>
+        <v>27.75376285599299</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>29.35309462084942</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>29.49526976956947</v>
+        <v>29.49526976956948</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>29.80550997785205</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29.91076442947682</v>
+        <v>29.90368195359293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.34789814370975</v>
+        <v>30.38181682228281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.36370067229545</v>
+        <v>29.39544827123272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29.18165525793749</v>
+        <v>29.21582156599243</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.04254347650294</v>
+        <v>29.01947205290912</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.43488589720107</v>
+        <v>29.44784034839601</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>29.06991667198842</v>
+        <v>29.05042070236438</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>29.20667067858914</v>
+        <v>29.23975431301681</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>29.56986282448849</v>
+        <v>29.56296533609228</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29.96139700238324</v>
+        <v>29.96316767332318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29.3087355961179</v>
+        <v>29.30088883048041</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>29.28591001267905</v>
+        <v>29.29708277044966</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.53227490229937</v>
+        <v>30.52356249280226</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.00074899306184</v>
+        <v>31.01049514839254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.97996632328969</v>
+        <v>29.96513240090744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29.93123140813572</v>
+        <v>29.93976063084671</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>29.69933763675706</v>
+        <v>29.71652152217149</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.06164045842844</v>
+        <v>30.08315420149735</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>29.63684851690586</v>
+        <v>29.62723490694206</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>29.75425140348655</v>
+        <v>29.77976582688484</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.04245942379706</v>
+        <v>30.03163978275968</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30.41763841476268</v>
+        <v>30.40447013951079</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29.70905013519557</v>
+        <v>29.71696508814113</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>29.75637752974649</v>
+        <v>29.72053554930067</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>30.27019504417498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31.55954703358405</v>
+        <v>31.55954703358406</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>29.60627337778189</v>
@@ -953,7 +953,7 @@
         <v>29.91336101739385</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>31.18575331800215</v>
+        <v>31.18575331800216</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>30.06024906803714</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.16232329527485</v>
+        <v>30.14540644521788</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.69192287143293</v>
+        <v>30.71396598970006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.96241993055387</v>
+        <v>29.96681926084075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31.27770840997723</v>
+        <v>31.29854864537037</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>29.28102228454126</v>
+        <v>29.27085866336711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>30.48222625361618</v>
+        <v>30.49332236187595</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.59166171331771</v>
+        <v>29.57894615053949</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>30.94594602014406</v>
+        <v>30.9267715328708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.85127238427285</v>
+        <v>29.83516262046563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30.67642805309675</v>
+        <v>30.69070498661524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29.87993100948412</v>
+        <v>29.88565261155548</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>31.18283682043441</v>
+        <v>31.19918091942854</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.74551635348033</v>
+        <v>30.73586030989826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>31.31377640333199</v>
+        <v>31.30369401012648</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30.56835619400833</v>
+        <v>30.53856395366448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.79138828174465</v>
+        <v>31.80350531959682</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>29.93941996349535</v>
+        <v>29.94132019608159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>31.03922895261892</v>
+        <v>31.02582855861772</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>30.22027735258823</v>
+        <v>30.23629274130936</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>31.41202148239988</v>
+        <v>31.41256194555657</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.26282725802107</v>
+        <v>30.271071649188</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31.08898211306735</v>
+        <v>31.0969697550199</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30.31730097479529</v>
+        <v>30.29662214063391</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>31.5508127622118</v>
+        <v>31.53922946533719</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>30.00152995860076</v>
+        <v>29.99068326942237</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.85573147876689</v>
+        <v>30.83474144254323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30.59352250031139</v>
+        <v>30.60282923348012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31.51268462474108</v>
+        <v>31.50576941849398</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>30.42372513044666</v>
+        <v>30.401662496958</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>30.93851499953734</v>
+        <v>30.92995991822368</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>30.36491700951899</v>
+        <v>30.42501309669312</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>31.51914430655892</v>
+        <v>31.48877259904878</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>30.33912516776331</v>
+        <v>30.32365492258398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31.02227004756202</v>
+        <v>31.01296831214427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30.62883504058962</v>
+        <v>30.64789523461089</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>31.5805067277061</v>
+        <v>31.60183698714305</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.9419791407883</v>
+        <v>30.88631242913587</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>31.73729228102996</v>
+        <v>31.6959092611274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31.36155251568847</v>
+        <v>31.38017269122583</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32.11768107864703</v>
+        <v>32.08623904393213</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>31.39118367557697</v>
+        <v>31.40705922119236</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.76533140852493</v>
+        <v>31.78348290359197</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>31.22762282068624</v>
+        <v>31.28696895044747</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>32.03521759323617</v>
+        <v>32.04784405969147</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>30.97579693771509</v>
+        <v>31.00475105597157</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31.6229081823492</v>
+        <v>31.62395545097692</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31.20411123936753</v>
+        <v>31.17798251935879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>31.98617698717878</v>
+        <v>32.00357768821715</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>30.06624019138711</v>
+        <v>30.06624019138712</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>30.5885990993286</v>
@@ -1216,7 +1216,7 @@
         <v>30.46299122613539</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>29.37357961560677</v>
+        <v>29.37357961560676</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>30.02055168550826</v>
@@ -1237,7 +1237,7 @@
         <v>29.56326165025104</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>30.3233455636133</v>
+        <v>30.32334556361331</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>29.8789263701293</v>
+        <v>29.88388796698811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>30.4064109375661</v>
+        <v>30.4346630725595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29.52418296407065</v>
+        <v>29.51908306558937</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30.27056708405612</v>
+        <v>30.25757057516422</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>29.18241261111562</v>
+        <v>29.17931879081241</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.84196800232725</v>
+        <v>29.83687350159545</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>29.29577789764061</v>
+        <v>29.27271008000499</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>30.02589903316947</v>
+        <v>30.03640805517176</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>29.59065686553358</v>
+        <v>29.58678166753948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30.17575597998107</v>
+        <v>30.17996813326365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29.44801071035975</v>
+        <v>29.44265701915844</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>30.20374133985725</v>
+        <v>30.20401237280437</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>30.24744005678782</v>
+        <v>30.26163092277848</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.7424938249534</v>
+        <v>30.77223323988968</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29.84760489017871</v>
+        <v>29.84823167471773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.64949217296894</v>
+        <v>30.63974409075276</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>29.57284584457891</v>
+        <v>29.57104443804468</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.19591059268952</v>
+        <v>30.20031746213115</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>29.62599442996491</v>
+        <v>29.61424410149088</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>30.34549562717306</v>
+        <v>30.33863747904165</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.86117877341703</v>
+        <v>29.84092041200134</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30.42885837868702</v>
+        <v>30.42009632121133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29.68727751100029</v>
+        <v>29.67323681499976</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>30.45609445984651</v>
+        <v>30.45126454027621</v>
       </c>
     </row>
     <row r="19">
